--- a/seperated_R/Excel.xlsx
+++ b/seperated_R/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\1ray\Ellie_NASA_Grant\science\CA\Megumi_data_analyzed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Wang\OneDrive\UC Berkeley\Research\Radiology, Sachs\Github Repo\URAP.CA\seperated_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F53B6-72C5-4E67-8D17-7D266F9D490B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F53B6-72C5-4E67-8D17-7D266F9D490B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV" sheetId="1" r:id="rId1"/>
@@ -1092,32 +1092,32 @@
   <dimension ref="A1:AP123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122:F123"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5234375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.89453125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1"/>
+    <col min="17" max="19" width="3.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2">
         <v>0.01</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="2">
         <v>0.2</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2">
         <v>0.4</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2">
         <v>0.6</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2">
         <v>0.2</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2">
         <v>0.3</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2">
         <v>0.4</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2">
         <v>0.6</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2">
         <v>0.01</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2">
         <v>0.05</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2">
         <v>0.1</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2">
         <v>0.2</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2">
         <v>0.2</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="2">
         <v>0.4</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2">
         <v>0.01</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2">
         <v>0.05</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2">
         <v>0.1</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2">
         <v>0.1</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2">
         <v>0.2</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2">
         <v>0.4</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="2">
         <v>0</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="2">
         <v>0.05</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2">
         <v>0.1</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="2">
         <v>0.2</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2">
         <v>0.3</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2">
         <v>0.4</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2">
         <v>0</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2">
         <v>0.02</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2">
         <v>0.04</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2">
         <v>0.08</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2">
         <v>0.12</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
         <v>0.2</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2">
         <v>0.2</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2">
         <v>0.3</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="1"/>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="2">
         <v>0.4</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
         <v>0.6</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2">
         <v>0</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="2">
         <v>0.02</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="2">
         <v>0.04</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="2">
         <v>0.06</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="2">
         <v>0.08</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:32" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" ht="12.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="2">
         <v>0.1</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="2">
         <v>0.2</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="2">
         <v>0.4</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2">
         <v>0.8</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="2">
         <v>1.2</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="2">
         <v>0</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="2">
         <v>0.01</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="2">
         <v>0.05</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="2">
         <v>0.1</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="2">
         <v>0.2</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="2">
         <v>0.4</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="2">
         <v>0</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2">
         <v>0.02</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="2">
         <v>0.04</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="2">
         <v>0.06</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="2">
         <v>0.08</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="2">
         <v>0.1</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="2">
         <v>0.2</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="2">
         <v>0.4</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2">
         <v>0.01</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2">
         <v>0.02</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2">
         <v>0.04</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="2">
         <v>0.1</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="2">
         <v>0.2</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="2">
         <v>0.4</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2">
         <v>0.8</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="2">
         <v>0</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="2">
         <v>0.01</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="2">
         <v>0.02</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="2">
         <v>0.04</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="2">
         <v>0.05</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="2">
         <v>0.06</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="2">
         <v>0.08</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="2">
         <v>0.12</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="2">
         <v>0.2</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="2">
         <v>0</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="2">
         <v>0.01</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="2">
         <v>0.02</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="2">
         <v>0.04</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="2">
         <v>0.1</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="2">
         <v>0.2</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="2">
         <v>0.4</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="2">
         <v>0.8</v>
       </c>
@@ -7399,67 +7399,67 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F122" t="s">
         <v>70</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="V122" s="1"/>
       <c r="X122"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F123" t="s">
         <v>71</v>
       </c>
